--- a/Library_Knowledge_Base.xlsx
+++ b/Library_Knowledge_Base.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Kyttaro\Desktop\Chatbot\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Kyttaro\Desktop\LiBot v1.0\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1C16F506-CABF-4208-BD3C-0CCD80FA6C50}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{091AC437-236E-401B-ACF9-C7D6BD8410B1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="15705" yWindow="4395" windowWidth="28800" windowHeight="15555" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="7200" yWindow="4470" windowWidth="28800" windowHeight="15555" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1863" uniqueCount="568">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1871" uniqueCount="570">
   <si>
     <t>Type</t>
   </si>
@@ -1825,6 +1825,12 @@
   </si>
   <si>
     <t>When is the library going back to normal</t>
+  </si>
+  <si>
+    <t>Do you sell food</t>
+  </si>
+  <si>
+    <t>Do you sell drinks</t>
   </si>
 </sst>
 </file>
@@ -2176,10 +2182,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D486"/>
+  <dimension ref="A1:D488"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A434" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C101" sqref="C101"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B356" sqref="B356"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7132,18 +7138,18 @@
         <v>11</v>
       </c>
     </row>
-    <row r="354" spans="1:4" ht="71.25" x14ac:dyDescent="0.25">
+    <row r="354" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A354" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B354" s="2">
-        <v>44</v>
+      <c r="B354" s="2" t="s">
+        <v>4</v>
       </c>
       <c r="C354" s="3" t="s">
-        <v>216</v>
+        <v>568</v>
       </c>
       <c r="D354" s="2" t="s">
-        <v>223</v>
+        <v>11</v>
       </c>
     </row>
     <row r="355" spans="1:4" x14ac:dyDescent="0.25">
@@ -7154,24 +7160,24 @@
         <v>4</v>
       </c>
       <c r="C355" s="3" t="s">
-        <v>217</v>
+        <v>569</v>
       </c>
       <c r="D355" s="2" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="356" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="356" spans="1:4" ht="71.25" x14ac:dyDescent="0.25">
       <c r="A356" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B356" s="2" t="s">
-        <v>4</v>
+      <c r="B356" s="2">
+        <v>44</v>
       </c>
       <c r="C356" s="3" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="D356" s="2" t="s">
-        <v>11</v>
+        <v>223</v>
       </c>
     </row>
     <row r="357" spans="1:4" x14ac:dyDescent="0.25">
@@ -7182,7 +7188,7 @@
         <v>4</v>
       </c>
       <c r="C357" s="3" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="D357" s="2" t="s">
         <v>11</v>
@@ -7196,7 +7202,7 @@
         <v>4</v>
       </c>
       <c r="C358" s="3" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="D358" s="2" t="s">
         <v>11</v>
@@ -7210,7 +7216,7 @@
         <v>4</v>
       </c>
       <c r="C359" s="3" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="D359" s="2" t="s">
         <v>11</v>
@@ -7224,24 +7230,24 @@
         <v>4</v>
       </c>
       <c r="C360" s="3" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="D360" s="2" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="361" spans="1:4" ht="42.75" x14ac:dyDescent="0.25">
+    <row r="361" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A361" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B361" s="2">
-        <v>45</v>
+      <c r="B361" s="2" t="s">
+        <v>4</v>
       </c>
       <c r="C361" s="3" t="s">
-        <v>258</v>
+        <v>221</v>
       </c>
       <c r="D361" s="2" t="s">
-        <v>224</v>
+        <v>11</v>
       </c>
     </row>
     <row r="362" spans="1:4" x14ac:dyDescent="0.25">
@@ -7252,38 +7258,38 @@
         <v>4</v>
       </c>
       <c r="C362" s="3" t="s">
+        <v>222</v>
+      </c>
+      <c r="D362" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="363" spans="1:4" ht="42.75" x14ac:dyDescent="0.25">
+      <c r="A363" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B363" s="2">
+        <v>45</v>
+      </c>
+      <c r="C363" s="3" t="s">
+        <v>258</v>
+      </c>
+      <c r="D363" s="2" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="364" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A364" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B364" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C364" s="3" t="s">
         <v>259</v>
       </c>
-      <c r="D362" s="2" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="363" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A363" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B363" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C363" s="3" t="s">
-        <v>260</v>
-      </c>
-      <c r="D363" s="2" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="364" spans="1:4" ht="42.75" x14ac:dyDescent="0.25">
-      <c r="A364" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B364" s="2">
-        <v>46</v>
-      </c>
-      <c r="C364" s="3" t="s">
-        <v>254</v>
-      </c>
       <c r="D364" s="2" t="s">
-        <v>225</v>
+        <v>11</v>
       </c>
     </row>
     <row r="365" spans="1:4" x14ac:dyDescent="0.25">
@@ -7294,24 +7300,24 @@
         <v>4</v>
       </c>
       <c r="C365" s="3" t="s">
-        <v>255</v>
+        <v>260</v>
       </c>
       <c r="D365" s="2" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="366" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="366" spans="1:4" ht="42.75" x14ac:dyDescent="0.25">
       <c r="A366" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B366" s="2" t="s">
-        <v>4</v>
+      <c r="B366" s="2">
+        <v>46</v>
       </c>
       <c r="C366" s="3" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="D366" s="2" t="s">
-        <v>11</v>
+        <v>225</v>
       </c>
     </row>
     <row r="367" spans="1:4" x14ac:dyDescent="0.25">
@@ -7322,7 +7328,7 @@
         <v>4</v>
       </c>
       <c r="C367" s="3" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="D367" s="2" t="s">
         <v>11</v>
@@ -7336,7 +7342,7 @@
         <v>4</v>
       </c>
       <c r="C368" s="3" t="s">
-        <v>497</v>
+        <v>256</v>
       </c>
       <c r="D368" s="2" t="s">
         <v>11</v>
@@ -7350,7 +7356,7 @@
         <v>4</v>
       </c>
       <c r="C369" s="3" t="s">
-        <v>498</v>
+        <v>257</v>
       </c>
       <c r="D369" s="2" t="s">
         <v>11</v>
@@ -7364,24 +7370,24 @@
         <v>4</v>
       </c>
       <c r="C370" s="3" t="s">
-        <v>499</v>
+        <v>497</v>
       </c>
       <c r="D370" s="2" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="371" spans="1:4" ht="57" x14ac:dyDescent="0.25">
+    <row r="371" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A371" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B371" s="2">
-        <v>47</v>
+      <c r="B371" s="2" t="s">
+        <v>4</v>
       </c>
       <c r="C371" s="3" t="s">
-        <v>261</v>
+        <v>498</v>
       </c>
       <c r="D371" s="2" t="s">
-        <v>226</v>
+        <v>11</v>
       </c>
     </row>
     <row r="372" spans="1:4" x14ac:dyDescent="0.25">
@@ -7392,24 +7398,24 @@
         <v>4</v>
       </c>
       <c r="C372" s="3" t="s">
-        <v>262</v>
+        <v>499</v>
       </c>
       <c r="D372" s="2" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="373" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="373" spans="1:4" ht="57" x14ac:dyDescent="0.25">
       <c r="A373" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B373" s="2" t="s">
-        <v>4</v>
+      <c r="B373" s="2">
+        <v>47</v>
       </c>
       <c r="C373" s="3" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="D373" s="2" t="s">
-        <v>11</v>
+        <v>226</v>
       </c>
     </row>
     <row r="374" spans="1:4" x14ac:dyDescent="0.25">
@@ -7420,24 +7426,24 @@
         <v>4</v>
       </c>
       <c r="C374" s="3" t="s">
-        <v>509</v>
+        <v>262</v>
       </c>
       <c r="D374" s="2" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="375" spans="1:4" ht="42.75" x14ac:dyDescent="0.25">
+    <row r="375" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A375" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B375" s="2">
-        <v>48</v>
+      <c r="B375" s="2" t="s">
+        <v>4</v>
       </c>
       <c r="C375" s="3" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="D375" s="2" t="s">
-        <v>330</v>
+        <v>11</v>
       </c>
     </row>
     <row r="376" spans="1:4" x14ac:dyDescent="0.25">
@@ -7448,24 +7454,24 @@
         <v>4</v>
       </c>
       <c r="C376" s="3" t="s">
-        <v>265</v>
+        <v>509</v>
       </c>
       <c r="D376" s="2" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="377" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="377" spans="1:4" ht="42.75" x14ac:dyDescent="0.25">
       <c r="A377" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B377" s="2" t="s">
-        <v>4</v>
+      <c r="B377" s="2">
+        <v>48</v>
       </c>
       <c r="C377" s="3" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="D377" s="2" t="s">
-        <v>11</v>
+        <v>330</v>
       </c>
     </row>
     <row r="378" spans="1:4" x14ac:dyDescent="0.25">
@@ -7476,7 +7482,7 @@
         <v>4</v>
       </c>
       <c r="C378" s="3" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="D378" s="2" t="s">
         <v>11</v>
@@ -7490,7 +7496,7 @@
         <v>4</v>
       </c>
       <c r="C379" s="3" t="s">
-        <v>500</v>
+        <v>266</v>
       </c>
       <c r="D379" s="2" t="s">
         <v>11</v>
@@ -7504,24 +7510,24 @@
         <v>4</v>
       </c>
       <c r="C380" s="3" t="s">
-        <v>501</v>
+        <v>267</v>
       </c>
       <c r="D380" s="2" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="381" spans="1:4" ht="28.5" x14ac:dyDescent="0.25">
+    <row r="381" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A381" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B381" s="2">
-        <v>49</v>
+      <c r="B381" s="2" t="s">
+        <v>4</v>
       </c>
       <c r="C381" s="3" t="s">
-        <v>268</v>
+        <v>500</v>
       </c>
       <c r="D381" s="2" t="s">
-        <v>227</v>
+        <v>11</v>
       </c>
     </row>
     <row r="382" spans="1:4" x14ac:dyDescent="0.25">
@@ -7532,24 +7538,24 @@
         <v>4</v>
       </c>
       <c r="C382" s="3" t="s">
-        <v>269</v>
+        <v>501</v>
       </c>
       <c r="D382" s="2" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="383" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="383" spans="1:4" ht="28.5" x14ac:dyDescent="0.25">
       <c r="A383" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B383" s="2" t="s">
-        <v>4</v>
+      <c r="B383" s="2">
+        <v>49</v>
       </c>
       <c r="C383" s="3" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="D383" s="2" t="s">
-        <v>11</v>
+        <v>227</v>
       </c>
     </row>
     <row r="384" spans="1:4" x14ac:dyDescent="0.25">
@@ -7560,24 +7566,24 @@
         <v>4</v>
       </c>
       <c r="C384" s="3" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="D384" s="2" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="385" spans="1:4" ht="42.75" x14ac:dyDescent="0.25">
+    <row r="385" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A385" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B385" s="2">
-        <v>50</v>
+      <c r="B385" s="2" t="s">
+        <v>4</v>
       </c>
       <c r="C385" s="3" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="D385" s="2" t="s">
-        <v>228</v>
+        <v>11</v>
       </c>
     </row>
     <row r="386" spans="1:4" x14ac:dyDescent="0.25">
@@ -7588,24 +7594,24 @@
         <v>4</v>
       </c>
       <c r="C386" s="3" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="D386" s="2" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="387" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="387" spans="1:4" ht="42.75" x14ac:dyDescent="0.25">
       <c r="A387" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B387" s="2" t="s">
-        <v>4</v>
+      <c r="B387" s="2">
+        <v>50</v>
       </c>
       <c r="C387" s="3" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="D387" s="2" t="s">
-        <v>11</v>
+        <v>228</v>
       </c>
     </row>
     <row r="388" spans="1:4" x14ac:dyDescent="0.25">
@@ -7616,24 +7622,24 @@
         <v>4</v>
       </c>
       <c r="C388" s="3" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="D388" s="2" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="389" spans="1:4" ht="28.5" x14ac:dyDescent="0.25">
+    <row r="389" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A389" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B389" s="2">
-        <v>51</v>
-      </c>
-      <c r="C389" s="2" t="s">
-        <v>331</v>
+      <c r="B389" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C389" s="3" t="s">
+        <v>274</v>
       </c>
       <c r="D389" s="2" t="s">
-        <v>341</v>
+        <v>11</v>
       </c>
     </row>
     <row r="390" spans="1:4" x14ac:dyDescent="0.25">
@@ -7643,25 +7649,25 @@
       <c r="B390" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="C390" s="2" t="s">
-        <v>332</v>
+      <c r="C390" s="3" t="s">
+        <v>275</v>
       </c>
       <c r="D390" s="2" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="391" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="391" spans="1:4" ht="28.5" x14ac:dyDescent="0.25">
       <c r="A391" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B391" s="2" t="s">
-        <v>4</v>
+      <c r="B391" s="2">
+        <v>51</v>
       </c>
       <c r="C391" s="2" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="D391" s="2" t="s">
-        <v>11</v>
+        <v>341</v>
       </c>
     </row>
     <row r="392" spans="1:4" x14ac:dyDescent="0.25">
@@ -7672,7 +7678,7 @@
         <v>4</v>
       </c>
       <c r="C392" s="2" t="s">
-        <v>359</v>
+        <v>332</v>
       </c>
       <c r="D392" s="2" t="s">
         <v>11</v>
@@ -7686,7 +7692,7 @@
         <v>4</v>
       </c>
       <c r="C393" s="2" t="s">
-        <v>360</v>
+        <v>333</v>
       </c>
       <c r="D393" s="2" t="s">
         <v>11</v>
@@ -7700,7 +7706,7 @@
         <v>4</v>
       </c>
       <c r="C394" s="2" t="s">
-        <v>502</v>
+        <v>359</v>
       </c>
       <c r="D394" s="2" t="s">
         <v>11</v>
@@ -7714,7 +7720,7 @@
         <v>4</v>
       </c>
       <c r="C395" s="2" t="s">
-        <v>466</v>
+        <v>360</v>
       </c>
       <c r="D395" s="2" t="s">
         <v>11</v>
@@ -7728,7 +7734,7 @@
         <v>4</v>
       </c>
       <c r="C396" s="2" t="s">
-        <v>508</v>
+        <v>502</v>
       </c>
       <c r="D396" s="2" t="s">
         <v>11</v>
@@ -7742,24 +7748,24 @@
         <v>4</v>
       </c>
       <c r="C397" s="2" t="s">
-        <v>510</v>
+        <v>466</v>
       </c>
       <c r="D397" s="2" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="398" spans="1:4" ht="28.5" x14ac:dyDescent="0.25">
+    <row r="398" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A398" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B398" s="2">
-        <v>52</v>
+      <c r="B398" s="2" t="s">
+        <v>4</v>
       </c>
       <c r="C398" s="2" t="s">
-        <v>362</v>
+        <v>508</v>
       </c>
       <c r="D398" s="2" t="s">
-        <v>366</v>
+        <v>11</v>
       </c>
     </row>
     <row r="399" spans="1:4" x14ac:dyDescent="0.25">
@@ -7770,24 +7776,24 @@
         <v>4</v>
       </c>
       <c r="C399" s="2" t="s">
-        <v>363</v>
+        <v>510</v>
       </c>
       <c r="D399" s="2" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="400" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="400" spans="1:4" ht="28.5" x14ac:dyDescent="0.25">
       <c r="A400" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B400" s="2" t="s">
-        <v>4</v>
+      <c r="B400" s="2">
+        <v>52</v>
       </c>
       <c r="C400" s="2" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="D400" s="2" t="s">
-        <v>11</v>
+        <v>366</v>
       </c>
     </row>
     <row r="401" spans="1:4" x14ac:dyDescent="0.25">
@@ -7798,7 +7804,7 @@
         <v>4</v>
       </c>
       <c r="C401" s="2" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
       <c r="D401" s="2" t="s">
         <v>11</v>
@@ -7808,14 +7814,14 @@
       <c r="A402" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B402" s="2">
-        <v>53</v>
+      <c r="B402" s="2" t="s">
+        <v>4</v>
       </c>
       <c r="C402" s="2" t="s">
-        <v>368</v>
+        <v>364</v>
       </c>
       <c r="D402" s="2" t="s">
-        <v>369</v>
+        <v>11</v>
       </c>
     </row>
     <row r="403" spans="1:4" x14ac:dyDescent="0.25">
@@ -7826,7 +7832,7 @@
         <v>4</v>
       </c>
       <c r="C403" s="2" t="s">
-        <v>371</v>
+        <v>365</v>
       </c>
       <c r="D403" s="2" t="s">
         <v>11</v>
@@ -7836,14 +7842,14 @@
       <c r="A404" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B404" s="2" t="s">
-        <v>4</v>
+      <c r="B404" s="2">
+        <v>53</v>
       </c>
       <c r="C404" s="2" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="D404" s="2" t="s">
-        <v>11</v>
+        <v>369</v>
       </c>
     </row>
     <row r="405" spans="1:4" x14ac:dyDescent="0.25">
@@ -7854,7 +7860,7 @@
         <v>4</v>
       </c>
       <c r="C405" s="2" t="s">
-        <v>503</v>
+        <v>371</v>
       </c>
       <c r="D405" s="2" t="s">
         <v>11</v>
@@ -7864,14 +7870,14 @@
       <c r="A406" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B406" s="2">
-        <v>54</v>
+      <c r="B406" s="2" t="s">
+        <v>4</v>
       </c>
       <c r="C406" s="2" t="s">
-        <v>375</v>
+        <v>370</v>
       </c>
       <c r="D406" s="2" t="s">
-        <v>382</v>
+        <v>11</v>
       </c>
     </row>
     <row r="407" spans="1:4" x14ac:dyDescent="0.25">
@@ -7882,7 +7888,7 @@
         <v>4</v>
       </c>
       <c r="C407" s="2" t="s">
-        <v>374</v>
+        <v>503</v>
       </c>
       <c r="D407" s="2" t="s">
         <v>11</v>
@@ -7892,28 +7898,28 @@
       <c r="A408" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B408" s="2" t="s">
-        <v>4</v>
+      <c r="B408" s="2">
+        <v>54</v>
       </c>
       <c r="C408" s="2" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="D408" s="2" t="s">
-        <v>11</v>
+        <v>382</v>
       </c>
     </row>
     <row r="409" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A409" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B409" s="2">
-        <v>55</v>
+      <c r="B409" s="2" t="s">
+        <v>4</v>
       </c>
       <c r="C409" s="2" t="s">
-        <v>387</v>
+        <v>374</v>
       </c>
       <c r="D409" s="2" t="s">
-        <v>389</v>
+        <v>11</v>
       </c>
     </row>
     <row r="410" spans="1:4" x14ac:dyDescent="0.25">
@@ -7924,7 +7930,7 @@
         <v>4</v>
       </c>
       <c r="C410" s="2" t="s">
-        <v>393</v>
+        <v>376</v>
       </c>
       <c r="D410" s="2" t="s">
         <v>11</v>
@@ -7934,14 +7940,14 @@
       <c r="A411" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B411" s="2" t="s">
-        <v>4</v>
+      <c r="B411" s="2">
+        <v>55</v>
       </c>
       <c r="C411" s="2" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="D411" s="2" t="s">
-        <v>11</v>
+        <v>389</v>
       </c>
     </row>
     <row r="412" spans="1:4" x14ac:dyDescent="0.25">
@@ -7952,7 +7958,7 @@
         <v>4</v>
       </c>
       <c r="C412" s="2" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="D412" s="2" t="s">
         <v>11</v>
@@ -7966,7 +7972,7 @@
         <v>4</v>
       </c>
       <c r="C413" s="2" t="s">
-        <v>504</v>
+        <v>388</v>
       </c>
       <c r="D413" s="2" t="s">
         <v>11</v>
@@ -7980,7 +7986,7 @@
         <v>4</v>
       </c>
       <c r="C414" s="2" t="s">
-        <v>505</v>
+        <v>394</v>
       </c>
       <c r="D414" s="2" t="s">
         <v>11</v>
@@ -7994,7 +8000,7 @@
         <v>4</v>
       </c>
       <c r="C415" s="2" t="s">
-        <v>506</v>
+        <v>504</v>
       </c>
       <c r="D415" s="2" t="s">
         <v>11</v>
@@ -8008,24 +8014,24 @@
         <v>4</v>
       </c>
       <c r="C416" s="2" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
       <c r="D416" s="2" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="417" spans="1:4" ht="43.5" x14ac:dyDescent="0.25">
+    <row r="417" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A417" s="2" t="s">
-        <v>229</v>
-      </c>
-      <c r="B417" s="2">
-        <v>1</v>
-      </c>
-      <c r="C417" s="3" t="s">
-        <v>398</v>
-      </c>
-      <c r="D417" s="4" t="s">
-        <v>288</v>
+        <v>4</v>
+      </c>
+      <c r="B417" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C417" s="2" t="s">
+        <v>506</v>
+      </c>
+      <c r="D417" s="2" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="418" spans="1:4" x14ac:dyDescent="0.25">
@@ -8035,25 +8041,25 @@
       <c r="B418" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="C418" s="3" t="s">
-        <v>278</v>
+      <c r="C418" s="2" t="s">
+        <v>507</v>
       </c>
       <c r="D418" s="2" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="419" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="419" spans="1:4" ht="43.5" x14ac:dyDescent="0.25">
       <c r="A419" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B419" s="2" t="s">
-        <v>4</v>
+        <v>229</v>
+      </c>
+      <c r="B419" s="2">
+        <v>1</v>
       </c>
       <c r="C419" s="3" t="s">
-        <v>279</v>
-      </c>
-      <c r="D419" s="2" t="s">
-        <v>11</v>
+        <v>398</v>
+      </c>
+      <c r="D419" s="4" t="s">
+        <v>288</v>
       </c>
     </row>
     <row r="420" spans="1:4" x14ac:dyDescent="0.25">
@@ -8063,8 +8069,8 @@
       <c r="B420" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="C420" s="2" t="s">
-        <v>377</v>
+      <c r="C420" s="3" t="s">
+        <v>278</v>
       </c>
       <c r="D420" s="2" t="s">
         <v>11</v>
@@ -8077,8 +8083,8 @@
       <c r="B421" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="C421" s="2" t="s">
-        <v>378</v>
+      <c r="C421" s="3" t="s">
+        <v>279</v>
       </c>
       <c r="D421" s="2" t="s">
         <v>11</v>
@@ -8091,10 +8097,10 @@
       <c r="B422" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="C422" s="3" t="s">
-        <v>399</v>
-      </c>
-      <c r="D422" s="4" t="s">
+      <c r="C422" s="2" t="s">
+        <v>377</v>
+      </c>
+      <c r="D422" s="2" t="s">
         <v>11</v>
       </c>
     </row>
@@ -8105,14 +8111,14 @@
       <c r="B423" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="C423" s="3" t="s">
-        <v>400</v>
+      <c r="C423" s="2" t="s">
+        <v>378</v>
       </c>
       <c r="D423" s="2" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="424" spans="1:4" ht="28.5" x14ac:dyDescent="0.25">
+    <row r="424" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A424" s="2" t="s">
         <v>4</v>
       </c>
@@ -8120,9 +8126,9 @@
         <v>4</v>
       </c>
       <c r="C424" s="3" t="s">
-        <v>401</v>
-      </c>
-      <c r="D424" s="2" t="s">
+        <v>399</v>
+      </c>
+      <c r="D424" s="4" t="s">
         <v>11</v>
       </c>
     </row>
@@ -8133,22 +8139,22 @@
       <c r="B425" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="C425" s="2" t="s">
-        <v>402</v>
+      <c r="C425" s="3" t="s">
+        <v>400</v>
       </c>
       <c r="D425" s="2" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="426" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="426" spans="1:4" ht="28.5" x14ac:dyDescent="0.25">
       <c r="A426" s="2" t="s">
         <v>4</v>
       </c>
       <c r="B426" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="C426" s="2" t="s">
-        <v>403</v>
+      <c r="C426" s="3" t="s">
+        <v>401</v>
       </c>
       <c r="D426" s="2" t="s">
         <v>11</v>
@@ -8162,24 +8168,24 @@
         <v>4</v>
       </c>
       <c r="C427" s="2" t="s">
-        <v>423</v>
+        <v>402</v>
       </c>
       <c r="D427" s="2" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="428" spans="1:4" ht="29.25" x14ac:dyDescent="0.25">
+    <row r="428" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A428" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B428" s="2">
-        <v>2</v>
-      </c>
-      <c r="C428" s="3" t="s">
-        <v>326</v>
-      </c>
-      <c r="D428" s="4" t="s">
-        <v>289</v>
+      <c r="B428" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C428" s="2" t="s">
+        <v>403</v>
+      </c>
+      <c r="D428" s="2" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="429" spans="1:4" x14ac:dyDescent="0.25">
@@ -8189,25 +8195,25 @@
       <c r="B429" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="C429" s="3" t="s">
-        <v>280</v>
+      <c r="C429" s="2" t="s">
+        <v>423</v>
       </c>
       <c r="D429" s="2" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="430" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="430" spans="1:4" ht="29.25" x14ac:dyDescent="0.25">
       <c r="A430" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B430" s="2" t="s">
-        <v>4</v>
+      <c r="B430" s="2">
+        <v>2</v>
       </c>
       <c r="C430" s="3" t="s">
-        <v>281</v>
-      </c>
-      <c r="D430" s="2" t="s">
-        <v>11</v>
+        <v>326</v>
+      </c>
+      <c r="D430" s="4" t="s">
+        <v>289</v>
       </c>
     </row>
     <row r="431" spans="1:4" x14ac:dyDescent="0.25">
@@ -8218,7 +8224,7 @@
         <v>4</v>
       </c>
       <c r="C431" s="3" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="D431" s="2" t="s">
         <v>11</v>
@@ -8232,24 +8238,24 @@
         <v>4</v>
       </c>
       <c r="C432" s="3" t="s">
-        <v>555</v>
+        <v>281</v>
       </c>
       <c r="D432" s="2" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="433" spans="1:4" ht="43.5" x14ac:dyDescent="0.25">
+    <row r="433" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A433" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B433" s="2">
-        <v>3</v>
+      <c r="B433" s="2" t="s">
+        <v>4</v>
       </c>
       <c r="C433" s="3" t="s">
-        <v>283</v>
-      </c>
-      <c r="D433" s="4" t="s">
-        <v>290</v>
+        <v>282</v>
+      </c>
+      <c r="D433" s="2" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="434" spans="1:4" x14ac:dyDescent="0.25">
@@ -8260,24 +8266,24 @@
         <v>4</v>
       </c>
       <c r="C434" s="3" t="s">
-        <v>284</v>
+        <v>555</v>
       </c>
       <c r="D434" s="2" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="435" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="435" spans="1:4" ht="43.5" x14ac:dyDescent="0.25">
       <c r="A435" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B435" s="2" t="s">
-        <v>4</v>
+      <c r="B435" s="2">
+        <v>3</v>
       </c>
       <c r="C435" s="3" t="s">
-        <v>285</v>
-      </c>
-      <c r="D435" s="2" t="s">
-        <v>11</v>
+        <v>283</v>
+      </c>
+      <c r="D435" s="4" t="s">
+        <v>290</v>
       </c>
     </row>
     <row r="436" spans="1:4" x14ac:dyDescent="0.25">
@@ -8288,7 +8294,7 @@
         <v>4</v>
       </c>
       <c r="C436" s="3" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="D436" s="2" t="s">
         <v>11</v>
@@ -8302,7 +8308,7 @@
         <v>4</v>
       </c>
       <c r="C437" s="3" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="D437" s="2" t="s">
         <v>11</v>
@@ -8316,24 +8322,24 @@
         <v>4</v>
       </c>
       <c r="C438" s="3" t="s">
-        <v>424</v>
+        <v>286</v>
       </c>
       <c r="D438" s="2" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="439" spans="1:4" ht="29.25" x14ac:dyDescent="0.25">
+    <row r="439" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A439" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B439" s="2">
+      <c r="B439" s="2" t="s">
         <v>4</v>
       </c>
       <c r="C439" s="3" t="s">
-        <v>296</v>
-      </c>
-      <c r="D439" s="4" t="s">
-        <v>329</v>
+        <v>287</v>
+      </c>
+      <c r="D439" s="2" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="440" spans="1:4" x14ac:dyDescent="0.25">
@@ -8344,24 +8350,24 @@
         <v>4</v>
       </c>
       <c r="C440" s="3" t="s">
-        <v>297</v>
+        <v>424</v>
       </c>
       <c r="D440" s="2" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="441" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="441" spans="1:4" ht="29.25" x14ac:dyDescent="0.25">
       <c r="A441" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B441" s="2" t="s">
+      <c r="B441" s="2">
         <v>4</v>
       </c>
       <c r="C441" s="3" t="s">
-        <v>298</v>
-      </c>
-      <c r="D441" s="2" t="s">
-        <v>11</v>
+        <v>296</v>
+      </c>
+      <c r="D441" s="4" t="s">
+        <v>329</v>
       </c>
     </row>
     <row r="442" spans="1:4" x14ac:dyDescent="0.25">
@@ -8372,7 +8378,7 @@
         <v>4</v>
       </c>
       <c r="C442" s="3" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="D442" s="2" t="s">
         <v>11</v>
@@ -8386,24 +8392,24 @@
         <v>4</v>
       </c>
       <c r="C443" s="3" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="D443" s="2" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="444" spans="1:4" ht="43.5" x14ac:dyDescent="0.25">
+    <row r="444" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A444" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B444" s="2">
-        <v>5</v>
+      <c r="B444" s="2" t="s">
+        <v>4</v>
       </c>
       <c r="C444" s="3" t="s">
-        <v>301</v>
-      </c>
-      <c r="D444" s="4" t="s">
-        <v>291</v>
+        <v>299</v>
+      </c>
+      <c r="D444" s="2" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="445" spans="1:4" x14ac:dyDescent="0.25">
@@ -8414,24 +8420,24 @@
         <v>4</v>
       </c>
       <c r="C445" s="3" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="D445" s="2" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="446" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="446" spans="1:4" ht="43.5" x14ac:dyDescent="0.25">
       <c r="A446" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B446" s="2" t="s">
-        <v>4</v>
+      <c r="B446" s="2">
+        <v>5</v>
       </c>
       <c r="C446" s="3" t="s">
-        <v>303</v>
-      </c>
-      <c r="D446" s="2" t="s">
-        <v>11</v>
+        <v>301</v>
+      </c>
+      <c r="D446" s="4" t="s">
+        <v>291</v>
       </c>
     </row>
     <row r="447" spans="1:4" x14ac:dyDescent="0.25">
@@ -8442,24 +8448,24 @@
         <v>4</v>
       </c>
       <c r="C447" s="3" t="s">
-        <v>556</v>
+        <v>302</v>
       </c>
       <c r="D447" s="2" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="448" spans="1:4" ht="43.5" x14ac:dyDescent="0.25">
+    <row r="448" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A448" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B448" s="2">
-        <v>6</v>
+      <c r="B448" s="2" t="s">
+        <v>4</v>
       </c>
       <c r="C448" s="3" t="s">
-        <v>304</v>
-      </c>
-      <c r="D448" s="4" t="s">
-        <v>292</v>
+        <v>303</v>
+      </c>
+      <c r="D448" s="2" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="449" spans="1:4" x14ac:dyDescent="0.25">
@@ -8470,24 +8476,24 @@
         <v>4</v>
       </c>
       <c r="C449" s="3" t="s">
-        <v>557</v>
-      </c>
-      <c r="D449" s="5" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="450" spans="1:4" x14ac:dyDescent="0.25">
+        <v>556</v>
+      </c>
+      <c r="D449" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="450" spans="1:4" ht="43.5" x14ac:dyDescent="0.25">
       <c r="A450" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B450" s="2" t="s">
-        <v>4</v>
+      <c r="B450" s="2">
+        <v>6</v>
       </c>
       <c r="C450" s="3" t="s">
-        <v>558</v>
-      </c>
-      <c r="D450" s="5" t="s">
-        <v>11</v>
+        <v>304</v>
+      </c>
+      <c r="D450" s="4" t="s">
+        <v>292</v>
       </c>
     </row>
     <row r="451" spans="1:4" x14ac:dyDescent="0.25">
@@ -8498,9 +8504,9 @@
         <v>4</v>
       </c>
       <c r="C451" s="3" t="s">
-        <v>305</v>
-      </c>
-      <c r="D451" s="2" t="s">
+        <v>557</v>
+      </c>
+      <c r="D451" s="5" t="s">
         <v>11</v>
       </c>
     </row>
@@ -8512,9 +8518,9 @@
         <v>4</v>
       </c>
       <c r="C452" s="3" t="s">
-        <v>306</v>
-      </c>
-      <c r="D452" s="2" t="s">
+        <v>558</v>
+      </c>
+      <c r="D452" s="5" t="s">
         <v>11</v>
       </c>
     </row>
@@ -8526,7 +8532,7 @@
         <v>4</v>
       </c>
       <c r="C453" s="3" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="D453" s="2" t="s">
         <v>11</v>
@@ -8540,7 +8546,7 @@
         <v>4</v>
       </c>
       <c r="C454" s="3" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="D454" s="2" t="s">
         <v>11</v>
@@ -8554,7 +8560,7 @@
         <v>4</v>
       </c>
       <c r="C455" s="3" t="s">
-        <v>425</v>
+        <v>307</v>
       </c>
       <c r="D455" s="2" t="s">
         <v>11</v>
@@ -8568,24 +8574,24 @@
         <v>4</v>
       </c>
       <c r="C456" s="3" t="s">
-        <v>304</v>
+        <v>308</v>
       </c>
       <c r="D456" s="2" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="457" spans="1:4" ht="29.25" x14ac:dyDescent="0.25">
+    <row r="457" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A457" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B457" s="2">
-        <v>7</v>
+      <c r="B457" s="2" t="s">
+        <v>4</v>
       </c>
       <c r="C457" s="3" t="s">
-        <v>309</v>
-      </c>
-      <c r="D457" s="4" t="s">
-        <v>293</v>
+        <v>425</v>
+      </c>
+      <c r="D457" s="2" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="458" spans="1:4" x14ac:dyDescent="0.25">
@@ -8596,24 +8602,24 @@
         <v>4</v>
       </c>
       <c r="C458" s="3" t="s">
-        <v>310</v>
+        <v>304</v>
       </c>
       <c r="D458" s="2" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="459" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="459" spans="1:4" ht="29.25" x14ac:dyDescent="0.25">
       <c r="A459" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B459" s="2" t="s">
-        <v>4</v>
+      <c r="B459" s="2">
+        <v>7</v>
       </c>
       <c r="C459" s="3" t="s">
-        <v>311</v>
-      </c>
-      <c r="D459" s="2" t="s">
-        <v>11</v>
+        <v>309</v>
+      </c>
+      <c r="D459" s="4" t="s">
+        <v>293</v>
       </c>
     </row>
     <row r="460" spans="1:4" x14ac:dyDescent="0.25">
@@ -8624,7 +8630,7 @@
         <v>4</v>
       </c>
       <c r="C460" s="3" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="D460" s="2" t="s">
         <v>11</v>
@@ -8638,7 +8644,7 @@
         <v>4</v>
       </c>
       <c r="C461" s="3" t="s">
-        <v>559</v>
+        <v>311</v>
       </c>
       <c r="D461" s="2" t="s">
         <v>11</v>
@@ -8648,14 +8654,14 @@
       <c r="A462" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B462" s="2">
-        <v>8</v>
+      <c r="B462" s="2" t="s">
+        <v>4</v>
       </c>
       <c r="C462" s="3" t="s">
-        <v>313</v>
-      </c>
-      <c r="D462" s="4" t="s">
-        <v>294</v>
+        <v>312</v>
+      </c>
+      <c r="D462" s="2" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="463" spans="1:4" x14ac:dyDescent="0.25">
@@ -8666,7 +8672,7 @@
         <v>4</v>
       </c>
       <c r="C463" s="3" t="s">
-        <v>314</v>
+        <v>559</v>
       </c>
       <c r="D463" s="2" t="s">
         <v>11</v>
@@ -8676,14 +8682,14 @@
       <c r="A464" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B464" s="2" t="s">
-        <v>4</v>
+      <c r="B464" s="2">
+        <v>8</v>
       </c>
       <c r="C464" s="3" t="s">
-        <v>315</v>
-      </c>
-      <c r="D464" s="2" t="s">
-        <v>11</v>
+        <v>313</v>
+      </c>
+      <c r="D464" s="4" t="s">
+        <v>294</v>
       </c>
     </row>
     <row r="465" spans="1:4" x14ac:dyDescent="0.25">
@@ -8694,7 +8700,7 @@
         <v>4</v>
       </c>
       <c r="C465" s="3" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="D465" s="2" t="s">
         <v>11</v>
@@ -8708,7 +8714,7 @@
         <v>4</v>
       </c>
       <c r="C466" s="3" t="s">
-        <v>404</v>
+        <v>315</v>
       </c>
       <c r="D466" s="2" t="s">
         <v>11</v>
@@ -8722,7 +8728,7 @@
         <v>4</v>
       </c>
       <c r="C467" s="3" t="s">
-        <v>560</v>
+        <v>316</v>
       </c>
       <c r="D467" s="2" t="s">
         <v>11</v>
@@ -8736,7 +8742,7 @@
         <v>4</v>
       </c>
       <c r="C468" s="3" t="s">
-        <v>561</v>
+        <v>404</v>
       </c>
       <c r="D468" s="2" t="s">
         <v>11</v>
@@ -8750,24 +8756,24 @@
         <v>4</v>
       </c>
       <c r="C469" s="3" t="s">
-        <v>562</v>
+        <v>560</v>
       </c>
       <c r="D469" s="2" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="470" spans="1:4" ht="29.25" x14ac:dyDescent="0.25">
+    <row r="470" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A470" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B470" s="2">
-        <v>9</v>
+      <c r="B470" s="2" t="s">
+        <v>4</v>
       </c>
       <c r="C470" s="3" t="s">
-        <v>317</v>
-      </c>
-      <c r="D470" s="4" t="s">
-        <v>295</v>
+        <v>561</v>
+      </c>
+      <c r="D470" s="2" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="471" spans="1:4" x14ac:dyDescent="0.25">
@@ -8778,24 +8784,24 @@
         <v>4</v>
       </c>
       <c r="C471" s="3" t="s">
-        <v>318</v>
+        <v>562</v>
       </c>
       <c r="D471" s="2" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="472" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="472" spans="1:4" ht="29.25" x14ac:dyDescent="0.25">
       <c r="A472" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B472" s="2" t="s">
-        <v>4</v>
+      <c r="B472" s="2">
+        <v>9</v>
       </c>
       <c r="C472" s="3" t="s">
-        <v>319</v>
-      </c>
-      <c r="D472" s="2" t="s">
-        <v>11</v>
+        <v>317</v>
+      </c>
+      <c r="D472" s="4" t="s">
+        <v>295</v>
       </c>
     </row>
     <row r="473" spans="1:4" x14ac:dyDescent="0.25">
@@ -8806,7 +8812,7 @@
         <v>4</v>
       </c>
       <c r="C473" s="3" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="D473" s="2" t="s">
         <v>11</v>
@@ -8820,7 +8826,7 @@
         <v>4</v>
       </c>
       <c r="C474" s="3" t="s">
-        <v>426</v>
+        <v>319</v>
       </c>
       <c r="D474" s="2" t="s">
         <v>11</v>
@@ -8834,7 +8840,7 @@
         <v>4</v>
       </c>
       <c r="C475" s="3" t="s">
-        <v>427</v>
+        <v>320</v>
       </c>
       <c r="D475" s="2" t="s">
         <v>11</v>
@@ -8848,7 +8854,7 @@
         <v>4</v>
       </c>
       <c r="C476" s="3" t="s">
-        <v>563</v>
+        <v>426</v>
       </c>
       <c r="D476" s="2" t="s">
         <v>11</v>
@@ -8862,7 +8868,7 @@
         <v>4</v>
       </c>
       <c r="C477" s="3" t="s">
-        <v>564</v>
+        <v>427</v>
       </c>
       <c r="D477" s="2" t="s">
         <v>11</v>
@@ -8876,24 +8882,24 @@
         <v>4</v>
       </c>
       <c r="C478" s="3" t="s">
-        <v>565</v>
+        <v>563</v>
       </c>
       <c r="D478" s="2" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="479" spans="1:4" ht="29.25" x14ac:dyDescent="0.25">
+    <row r="479" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A479" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B479" s="2">
-        <v>10</v>
+      <c r="B479" s="2" t="s">
+        <v>4</v>
       </c>
       <c r="C479" s="3" t="s">
-        <v>321</v>
-      </c>
-      <c r="D479" s="4" t="s">
-        <v>328</v>
+        <v>564</v>
+      </c>
+      <c r="D479" s="2" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="480" spans="1:4" x14ac:dyDescent="0.25">
@@ -8904,24 +8910,24 @@
         <v>4</v>
       </c>
       <c r="C480" s="3" t="s">
-        <v>322</v>
+        <v>565</v>
       </c>
       <c r="D480" s="2" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="481" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="481" spans="1:4" ht="29.25" x14ac:dyDescent="0.25">
       <c r="A481" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B481" s="2" t="s">
-        <v>4</v>
+      <c r="B481" s="2">
+        <v>10</v>
       </c>
       <c r="C481" s="3" t="s">
-        <v>323</v>
-      </c>
-      <c r="D481" s="2" t="s">
-        <v>11</v>
+        <v>321</v>
+      </c>
+      <c r="D481" s="4" t="s">
+        <v>328</v>
       </c>
     </row>
     <row r="482" spans="1:4" x14ac:dyDescent="0.25">
@@ -8932,7 +8938,7 @@
         <v>4</v>
       </c>
       <c r="C482" s="3" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="D482" s="2" t="s">
         <v>11</v>
@@ -8946,7 +8952,7 @@
         <v>4</v>
       </c>
       <c r="C483" s="3" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="D483" s="2" t="s">
         <v>11</v>
@@ -8959,8 +8965,8 @@
       <c r="B484" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="C484" s="2" t="s">
-        <v>405</v>
+      <c r="C484" s="3" t="s">
+        <v>324</v>
       </c>
       <c r="D484" s="2" t="s">
         <v>11</v>
@@ -8973,8 +8979,8 @@
       <c r="B485" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="C485" s="2" t="s">
-        <v>566</v>
+      <c r="C485" s="3" t="s">
+        <v>325</v>
       </c>
       <c r="D485" s="2" t="s">
         <v>11</v>
@@ -8988,9 +8994,37 @@
         <v>4</v>
       </c>
       <c r="C486" s="2" t="s">
+        <v>405</v>
+      </c>
+      <c r="D486" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="487" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A487" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B487" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C487" s="2" t="s">
+        <v>566</v>
+      </c>
+      <c r="D487" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="488" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A488" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B488" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C488" s="2" t="s">
         <v>567</v>
       </c>
-      <c r="D486" s="2" t="s">
+      <c r="D488" s="2" t="s">
         <v>11</v>
       </c>
     </row>
